--- a/MainTop/11.12.2025 Таня Озон/тюмень список_updated.xlsx
+++ b/MainTop/11.12.2025 Таня Озон/тюмень список_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\11.12.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA7DFDA-0A26-482C-B859-D1CEAAEFF21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B5DAC-96FB-4767-851A-9F80C33E162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
-    <t>артикул</t>
-  </si>
-  <si>
     <t>место</t>
   </si>
   <si>
-    <t>тюмень_рфц</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Пионы надпись</t>
   </si>
   <si>
@@ -266,6 +260,12 @@
   </si>
   <si>
     <t>11.12.2025 Таня Озон</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>Num_Copies</t>
   </si>
 </sst>
 </file>
@@ -688,456 +688,457 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
